--- a/output/17stycznia/2020/sheets/year_2020.xlsx
+++ b/output/17stycznia/2020/sheets/year_2020.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>47.62903225806452</v>
+        <v>49.36009377122264</v>
       </c>
       <c r="C2" t="n">
-        <v>47.24516129032259</v>
+        <v>47.66484793256699</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>47.49310344827586</v>
+        <v>48.68213074604331</v>
       </c>
       <c r="C3" t="n">
-        <v>43.26206896551724</v>
+        <v>48.29601607599904</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.24516129032258</v>
+        <v>46.89862497035124</v>
       </c>
       <c r="C4" t="n">
-        <v>30.97741935483871</v>
+        <v>45.01345208857217</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.51666666666667</v>
+        <v>39.85112763115779</v>
       </c>
       <c r="C5" t="n">
-        <v>24.3</v>
+        <v>38.75758014682168</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36.60967741935485</v>
+        <v>43.50705427991691</v>
       </c>
       <c r="C6" t="n">
-        <v>19.84516129032258</v>
+        <v>40.18513049801727</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.38666666666666</v>
+        <v>44.51002714218778</v>
       </c>
       <c r="C7" t="n">
-        <v>25.05333333333333</v>
+        <v>37.33906246712478</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.21935483870968</v>
+        <v>40.47464105563791</v>
       </c>
       <c r="C8" t="n">
-        <v>34.13870967741936</v>
+        <v>41.69408429136239</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37.79032258064516</v>
+        <v>41.59920894768682</v>
       </c>
       <c r="C9" t="n">
-        <v>39.46774193548387</v>
+        <v>42.35173201406835</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.41</v>
+        <v>45.55765668723984</v>
       </c>
       <c r="C10" t="n">
-        <v>41.18666666666666</v>
+        <v>44.63424329041328</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.78709677419354</v>
+        <v>44.23907725500489</v>
       </c>
       <c r="C11" t="n">
-        <v>36.74516129032259</v>
+        <v>41.9457942978447</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>38.85666666666666</v>
+        <v>44.83441871267824</v>
       </c>
       <c r="C12" t="n">
-        <v>35.56</v>
+        <v>41.73273042276357</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.72258064516129</v>
+        <v>43.19266887493753</v>
       </c>
       <c r="C13" t="n">
-        <v>35.8</v>
+        <v>41.42092826104374</v>
       </c>
     </row>
   </sheetData>
